--- a/biology/Botanique/Johann_Gustav_Gassner/Johann_Gustav_Gassner.xlsx
+++ b/biology/Botanique/Johann_Gustav_Gassner/Johann_Gustav_Gassner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Gustav Gassner est un botaniste allemand, né le 17 janvier 1881 à Berlin et mort le 5 février 1955 à Lunebourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de George et de Louise née Voigt. Il obtient son doctorat à l’université agricole de Berlin (de) en 1906. Il épouse Lili Fassier-Farnkopf en 1910, union dont il aura trois fils et une fille.
 Il devient professeur de botanique et de phytopathologie à l’université agricole de Montevideo en Uruguay en 1907. Il revient en Allemagne en 1910 et rejoint l’université de Kiel en 1911 puis devient professeur-associé à l’université de Rostock en 1915. En 1918, il devient professeur de botanique à l’université de Brunswick, dirige le service de protection des végétaux turcs de 1934 à 1939, puis dirige le service de biologie de Fahlberg-List A.G. à Magdebourg. Gassner devient le recteur de l’université technique de Brunswick en 1945. L’université de Göttingen lui attribue un doctorat honoris causa.
